--- a/data/trans_camb/P23_9_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_9_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,05</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>4,09</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,82</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,55</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 5,83</t>
+          <t>-6,38; 8,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 0,81</t>
+          <t>-11,65; 1,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 12,28</t>
+          <t>-6,75; 10,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 9,93</t>
+          <t>-6,94; 16,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 1,9</t>
+          <t>-10,36; 15,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 10,24</t>
+          <t>-2,59; 9,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 5,7</t>
+          <t>-7,63; 2,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,32; -0,43</t>
+          <t>-7,96; 1,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 8,98</t>
+          <t>-1,13; 11,92</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-9,99; 6,39</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 7,25</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; 0,09</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,07; 4,57</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 12,0</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-6,83; 8,2</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,66%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-55,0%</t>
+          <t>-49,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-41,97%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>50,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>-37,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-50,22%</t>
+          <t>-42,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>105,77%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-20,38%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>23,55%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-44,99%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-8,46%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>58,51%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,28; 90,54</t>
+          <t>-52,51; 133,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,94; 23,56</t>
+          <t>-83,35; 37,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,45; 170,16</t>
+          <t>-55,0; 144,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 240,68</t>
+          <t>-43,94; 255,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-81,83; 54,31</t>
+          <t>-54,66; 184,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,37; 212,05</t>
+          <t>-30,98; 260,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,2; 82,64</t>
+          <t>-80,8; 70,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-76,07; -3,55</t>
+          <t>-83,44; 71,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,41; 134,42</t>
+          <t>-30,09; 769,45</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-70,09; 101,72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-27,52; 117,88</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-74,37; 4,96</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-51,81; 71,84</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-18,54; 218,42</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-46,16; 95,33</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,04</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>12,06</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,37</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,42</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,79</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,49</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,97</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 12,26</t>
+          <t>-1,21; 13,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 12,51</t>
+          <t>-2,06; 13,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 12,32</t>
+          <t>-5,67; 5,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 13,31</t>
+          <t>1,58; 17,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 18,81</t>
+          <t>-3,58; 13,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 8,57</t>
+          <t>0,07; 14,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,9</t>
+          <t>5,05; 20,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 12,47</t>
+          <t>-7,6; 4,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 8,14</t>
+          <t>-5,49; 6,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-9,55; 3,75</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 11,31</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 13,55</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 3,49</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 10,12</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 6,69</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>67,9%</t>
+          <t>71,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>55,48%</t>
+          <t>57,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>-5,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>74,41%</t>
+          <t>156,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>122,39%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>71,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>71,58%</t>
+          <t>119,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>-11,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-20,73%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>71,75%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>92,85%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-9,5%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>68,07%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9,89%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 298,11</t>
+          <t>-21,6; 335,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,91; 339,87</t>
+          <t>-32,0; 317,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 364,39</t>
+          <t>-63,22; 146,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 208,54</t>
+          <t>11,42; 501,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,39; 288,4</t>
+          <t>-25,61; 191,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,68; 130,15</t>
+          <t>-0,91; 203,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 181,97</t>
+          <t>33,33; 303,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,94; 208,17</t>
+          <t>-59,5; 76,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 141,87</t>
+          <t>-49,1; 104,42</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-62,33; 54,01</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8,46; 189,87</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>26,97; 220,05</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-46,49; 56,7</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 186,44</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-33,29; 75,92</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,39</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>5,55</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-3,35</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,35</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-4,37</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 5,82</t>
+          <t>-8,83; 7,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 8,88</t>
+          <t>-8,94; 9,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 2,38</t>
+          <t>-11,01; 7,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 12,95</t>
+          <t>-9,17; 9,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 11,19</t>
+          <t>-5,33; 11,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 8,68</t>
+          <t>-0,77; 12,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 6,94</t>
+          <t>-1,77; 10,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 7,55</t>
+          <t>-12,92; -1,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 3,31</t>
+          <t>0,02; 11,92</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-9,84; 3,73</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,05; 8,1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 7,91</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-9,64; 1,13</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 8,32</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 5,31</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-10,58%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,55%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-27,15%</t>
+          <t>-7,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>-1,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>-44,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-9,21%</t>
+          <t>61,71%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-18,7%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13,18%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-24,46%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>21,6%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-2,16%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,54; 37,82</t>
+          <t>-34,27; 49,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,12; 54,78</t>
+          <t>-36,65; 59,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,42; 16,15</t>
+          <t>-45,48; 45,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,66; 112,77</t>
+          <t>-40,91; 63,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 95,21</t>
+          <t>-29,82; 96,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 69,08</t>
+          <t>-3,96; 96,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 45,94</t>
+          <t>-9,37; 88,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 50,41</t>
+          <t>-66,92; -14,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,17; 22,18</t>
+          <t>-0,93; 182,42</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-46,58; 25,89</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-14,64; 52,76</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-13,83; 52,38</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-46,21; 7,8</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-21,15; 70,92</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-27,67; 37,3</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,79</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>-1,79</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4,48</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7,14</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-3,91</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5,43</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>6,97</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>7,11</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>4,59</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>3,7</t>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4,44</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-3,54</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,61</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-1,39</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,34; 17,02</t>
+          <t>1,65; 16,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 9,19</t>
+          <t>-5,7; 8,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 13,55</t>
+          <t>-10,78; 3,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 11,34</t>
+          <t>-1,5; 12,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 13,35</t>
+          <t>-9,57; 6,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 10,07</t>
+          <t>-1,87; 10,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,48; 12,16</t>
+          <t>1,04; 13,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 9,13</t>
+          <t>-9,77; 1,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 9,03</t>
+          <t>-1,04; 10,97</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-8,23; 5,89</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 12,37</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 9,13</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; 1,14</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 10,14</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-7,05; 4,47</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>61,53%</t>
+          <t>57,99%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>-19,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>43,35%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>40,44%</t>
+          <t>-8,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>42,84%</t>
+          <t>41,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>-22,78%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>40,94%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-4,82%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>41,46%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>26,42%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-21,02%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>42,19%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-6,88%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,44; 143,34</t>
+          <t>6,6; 138,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 79,17</t>
+          <t>-28,79; 63,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 110,6</t>
+          <t>-50,71; 29,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 80,83</t>
+          <t>-10,08; 117,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,24; 100,81</t>
+          <t>-38,27; 43,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 69,58</t>
+          <t>-9,54; 73,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,43; 86,35</t>
+          <t>5,37; 100,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 65,92</t>
+          <t>-47,53; 12,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 60,6</t>
+          <t>-8,85; 98,7</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-35,4; 36,57</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>7,86; 86,15</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 63,56</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-42,23; 7,63</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 92,36</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-30,18; 26,38</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>-7,8</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>11,12</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>6,83</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,88</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-5,64</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>8,91</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 11,19</t>
+          <t>-3,18; 11,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 10,18</t>
+          <t>-5,07; 10,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 11,52</t>
+          <t>-14,25; -1,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 8,79</t>
+          <t>3,98; 18,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 9,73</t>
+          <t>-9,05; 8,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 7,69</t>
+          <t>-4,95; 9,75</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 7,61</t>
+          <t>-4,42; 10,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 7,89</t>
+          <t>-10,88; 3,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 8,16</t>
+          <t>-1,26; 14,94</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-5,78; 10,3</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 8,3</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 7,87</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-10,24; -0,29</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>3,57; 14,42</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 6,38</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>-44,75%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>115,52%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>-0,5%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>-18,79%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>44,02%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>13,28%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>15,42%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-30,85%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>70,44%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 86,82</t>
+          <t>-16,22; 83,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 73,4</t>
+          <t>-22,73; 77,38</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 83,12</t>
+          <t>-67,11; -7,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 59,93</t>
+          <t>31,87; 258,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 59,78</t>
+          <t>-37,2; 51,41</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 50,5</t>
+          <t>-23,21; 68,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 49,88</t>
+          <t>-19,72; 69,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 51,64</t>
+          <t>-48,75; 24,09</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-16,19; 50,27</t>
+          <t>-7,73; 136,16</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-24,78; 62,92</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-11,01; 53,42</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-15,27; 49,5</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-50,16; -1,49</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>21,52; 135,97</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-20,76; 37,0</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>15,72</t>
+          <t>14,44</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-5,4</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>3,18</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>8,69</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>5,29</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,23; 27,78</t>
+          <t>2,54; 25,26</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 11,88</t>
+          <t>-7,61; 11,85</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 16,54</t>
+          <t>-17,03; 2,85</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 14,3</t>
+          <t>-0,95; 15,89</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 6,54</t>
+          <t>-15,79; 3,95</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 14,96</t>
+          <t>-4,27; 13,15</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,82; 17,35</t>
+          <t>-8,37; 6,64</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 6,58</t>
+          <t>-4,63; 14,12</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 13,54</t>
+          <t>-7,04; 13,48</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; 13,95</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 15,59</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 6,49</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-7,36; 6,65</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 12,37</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 6,97</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>81,22%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>-33,56%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>63,33%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-5,01%</t>
+          <t>-21,86%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>51,17%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>12,87%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>44,73%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-2,21%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>27,85%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-1,59%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>3,96; 206,54</t>
+          <t>3,56; 185,14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-37,52; 90,61</t>
+          <t>-31,85; 99,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 125,31</t>
+          <t>-69,62; 24,7</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 88,79</t>
+          <t>-8,08; 202,26</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 42,28</t>
+          <t>-53,76; 18,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 88,27</t>
+          <t>-17,71; 84,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,59; 113,2</t>
+          <t>-34,82; 42,24</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 41,02</t>
+          <t>-20,42; 89,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 85,31</t>
+          <t>-22,25; 73,4</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-23,91; 76,17</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 96,25</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-28,12; 40,33</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-31,8; 41,51</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-6,24; 77,73</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-29,03; 34,06</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>4,49</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-2,59</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>5,24</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,88; 8,16</t>
+          <t>1,9; 8,88</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,82</t>
+          <t>-2,59; 4,6</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 6,21</t>
+          <t>-6,04; 0,68</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,38</t>
+          <t>2,82; 10,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,44</t>
+          <t>-2,95; 4,81</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 5,93</t>
+          <t>1,61; 7,44</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,93</t>
+          <t>1,04; 6,69</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 4,46</t>
+          <t>-5,41; 0,44</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,1; 5,22</t>
+          <t>1,35; 7,66</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 3,31</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 7,18</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 4,6</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; -0,34</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 7,67</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 2,65</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>-18,36%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>49,91%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>-15,95%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>34,44%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-2,28%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>32,01%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>15,64%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-17,11%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>41,75%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-0,05%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>4,66; 62,82</t>
+          <t>10,59; 67,99</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 28,33</t>
+          <t>-15,66; 35,68</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 47,55</t>
+          <t>-36,73; 5,45</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,91; 52,52</t>
+          <t>20,5; 93,94</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>4,73; 46,49</t>
+          <t>-15,58; 30,05</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 41,61</t>
+          <t>8,92; 52,36</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>13,35; 50,14</t>
+          <t>6,2; 47,46</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 32,2</t>
+          <t>-31,63; 3,07</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0,47; 36,84</t>
+          <t>9,54; 66,5</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-18,2; 21,17</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>15,4; 51,68</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 32,83</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-30,01; -2,34</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>20,19; 68,38</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-12,89; 15,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
